--- a/ExcelFile.xlsx
+++ b/ExcelFile.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Box/JuliaUG/IO-Workshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1040369/Box/JuliaUG/IO-Workshop/Julia-IO-Workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB2646-652E-3B44-AC50-FB21EDAC1C2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F4BB1-C587-3543-B369-D25FE01F74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20660" yWindow="6620" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{74374D5E-4652-1D4B-A0F7-5C5334EE3CB9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16800" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="MainSheet" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="NewSheet" r:id="rId7" sheetId="5"/>
   </sheets>
   <definedNames>
-    <definedName name="DogCell">Sheet2!$A$3</definedName>
+    <definedName name="Dog">Sheet2!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,21 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Header1</t>
-  </si>
-  <si>
-    <t>Header2</t>
-  </si>
-  <si>
-    <t>Header3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Animal</t>
   </si>
   <si>
-    <t>Heads</t>
+    <t>Legs</t>
   </si>
   <si>
     <t>Rabbit</t>
@@ -56,10 +48,37 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>Legs</t>
-  </si>
-  <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>integers</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>floats</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>datetimes</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>There</t>
   </si>
   <si>
     <t>this</t>
@@ -75,16 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,9 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf fillId="0" fontId="0" numFmtId="14" xfId="0" borderId="0" applyNumberFormat="1"/>
+    <xf fillId="0" fontId="0" numFmtId="20" xfId="0" borderId="0" applyNumberFormat="1"/>
+    <xf fillId="0" fontId="0" numFmtId="22" xfId="0" borderId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,127 +441,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27304DE2-E512-8045-A38F-77DBFFC59878}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699EB6AA-F7DB-5743-998A-F5E8997112A4}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0495A760-FBE7-E746-8316-F9B6F780D464}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE60DCB-8FB0-C740-AE5F-17F0660F0476}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -557,18 +508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0C52A-7D01-D240-A277-C881AD2800CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085F085-01B9-8943-BBFD-690F978BD75A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -576,7 +525,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -584,7 +533,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -646,6 +595,119 @@
       </c>
       <c r="C9">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>10.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43151</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.7986111111111112</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43240.79861111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>20.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43152</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43240.805555555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>30.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43153</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43240.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>40.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43154</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.8194444444444444</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43240.819444444445</v>
       </c>
     </row>
   </sheetData>
